--- a/TP2/Calculo de PF.xlsx
+++ b/TP2/Calculo de PF.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Roy\Unla\IS2\TPsIS2\TP2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{56044140-74DB-493F-A0C0-EA25D15041A6}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{9823E4CF-734A-431A-9D85-D42976F7F26E}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8940" xr2:uid="{BE5A8EA9-04E7-4F7E-ABA4-0B92E2555880}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Puntos de funcion" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -552,8 +552,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11DEA75C-DCCD-4D70-A430-A686AF07B1BE}">
   <dimension ref="B3:L103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A74" workbookViewId="0">
-      <selection activeCell="C88" sqref="C88"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="D50" sqref="D50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -572,7 +572,7 @@
       </c>
       <c r="C3" s="10">
         <f>IF(L16=0,0,IF(F37=0,0,L16*F37))</f>
-        <v>837.97816666666665</v>
+        <v>572.37016666666671</v>
       </c>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.25">
@@ -673,11 +673,11 @@
         <v>11.091666666666667</v>
       </c>
       <c r="K11" s="9">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="L11" s="9">
         <f>J11*K11</f>
-        <v>66.55</v>
+        <v>44.366666666666667</v>
       </c>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.25">
@@ -711,11 +711,11 @@
         <v>30.25</v>
       </c>
       <c r="K12" s="9">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="L12" s="9">
         <f t="shared" ref="L12:L15" si="4">J12*K12</f>
-        <v>211.75</v>
+        <v>151.25</v>
       </c>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.25">
@@ -745,11 +745,11 @@
         <v>31.258333333333336</v>
       </c>
       <c r="K13" s="9">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="L13" s="9">
         <f t="shared" si="4"/>
-        <v>187.55</v>
+        <v>125.03333333333335</v>
       </c>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.25">
@@ -781,11 +781,11 @@
         <v>13</v>
       </c>
       <c r="K14" s="9">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="L14" s="9">
         <f t="shared" si="4"/>
-        <v>195</v>
+        <v>130</v>
       </c>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.25">
@@ -817,11 +817,11 @@
         <v>4.333333333333333</v>
       </c>
       <c r="K15" s="9">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="L15" s="9">
         <f t="shared" si="4"/>
-        <v>43.333333333333329</v>
+        <v>30.333333333333332</v>
       </c>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.25">
@@ -842,7 +842,7 @@
       <c r="K16" s="9"/>
       <c r="L16" s="9">
         <f>SUM(L11:L15)</f>
-        <v>704.18333333333339</v>
+        <v>480.98333333333335</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.25">
